--- a/August'21/11.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/11.08.2021/Daily Sales Info August-2021.xlsx
@@ -16836,7 +16836,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
